--- a/metadata/data/input/analysis/LDM_INTF_Report.xlsx
+++ b/metadata/data/input/analysis/LDM_INTF_Report.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="24240" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="export0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2898,8 +2898,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3237,8 +3238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G540"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D338" workbookViewId="0">
+      <selection activeCell="H366" sqref="H366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7134,14 +7135,14 @@
         <v>336</v>
       </c>
     </row>
-    <row r="366" spans="4:7">
-      <c r="D366" t="s">
+    <row r="366" spans="4:7" s="1" customFormat="1">
+      <c r="D366" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="E366" t="s">
+      <c r="E366" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G366" t="s">
+      <c r="G366" s="1" t="s">
         <v>227</v>
       </c>
     </row>
